--- a/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Student-Import-Excel.xlsx
+++ b/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Student-Import-Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB21D6D-6354-4835-A5F5-D774CA7B8C53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F10221-552B-4490-8760-DDB1446BDF54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1E787152-8A49-4455-BC02-7F4D2382D464}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Telefon</t>
   </si>
@@ -54,7 +54,52 @@
     <t>Karaca</t>
   </si>
   <si>
+    <t>15-155-031</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Gökce</t>
+  </si>
+  <si>
+    <t>aligkc029@gmail.com</t>
+  </si>
+  <si>
+    <t>(111) 111 1111</t>
+  </si>
+  <si>
+    <t>15-155-027</t>
+  </si>
+  <si>
+    <t>Erkan</t>
+  </si>
+  <si>
+    <t>Sevdi</t>
+  </si>
+  <si>
+    <t>erkansevdi65@gmail.com</t>
+  </si>
+  <si>
+    <t>(111) 111 1112</t>
+  </si>
+  <si>
+    <t>(111) 111 1113</t>
+  </si>
+  <si>
+    <t>(111) 111 1114</t>
+  </si>
+  <si>
     <t>mail@mail.com</t>
+  </si>
+  <si>
+    <t>15-155-058</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>Ergen</t>
   </si>
 </sst>
 </file>
@@ -106,10 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB0CC04-0019-41D2-A8E4-E64228F4488E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,23 +501,87 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{7B167B02-323F-423D-B24B-3DF5A3400447}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{520C3832-2FFE-40A4-AFBB-F1E07FBA11BD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6027465A-53BE-44A3-AA45-67C324CE02C7}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{06FC7CD9-1B52-4481-AE59-636CC4482FA4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{211F5664-F691-4EAF-9BA8-70A491BACF99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Student-Import-Excel.xlsx
+++ b/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Student-Import-Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F10221-552B-4490-8760-DDB1446BDF54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99E129-F753-4C5A-BF25-E0217D1B727D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1E787152-8A49-4455-BC02-7F4D2382D464}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Telefon</t>
   </si>
   <si>
-    <t>Giriş Tarihi</t>
-  </si>
-  <si>
     <t>Öğrenci Numarası*</t>
   </si>
   <si>
@@ -54,7 +51,22 @@
     <t>Karaca</t>
   </si>
   <si>
-    <t>15-155-031</t>
+    <t>mustafakaraca014@gmail.com</t>
+  </si>
+  <si>
+    <t>(111) 111 1111</t>
+  </si>
+  <si>
+    <t>15-155-002</t>
+  </si>
+  <si>
+    <t>(111) 111 1112</t>
+  </si>
+  <si>
+    <t>15-155-003</t>
+  </si>
+  <si>
+    <t>(111) 111 1113</t>
   </si>
   <si>
     <t>Ali</t>
@@ -63,13 +75,7 @@
     <t>Gökce</t>
   </si>
   <si>
-    <t>aligkc029@gmail.com</t>
-  </si>
-  <si>
-    <t>(111) 111 1111</t>
-  </si>
-  <si>
-    <t>15-155-027</t>
+    <t>aligkc29@gmail.com</t>
   </si>
   <si>
     <t>Erkan</t>
@@ -78,28 +84,7 @@
     <t>Sevdi</t>
   </si>
   <si>
-    <t>erkansevdi65@gmail.com</t>
-  </si>
-  <si>
-    <t>(111) 111 1112</t>
-  </si>
-  <si>
-    <t>(111) 111 1113</t>
-  </si>
-  <si>
-    <t>(111) 111 1114</t>
-  </si>
-  <si>
-    <t>mail@mail.com</t>
-  </si>
-  <si>
-    <t>15-155-058</t>
-  </si>
-  <si>
-    <t>Engin</t>
-  </si>
-  <si>
-    <t>Ergen</t>
+    <t>erkansevdi065@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -151,11 +136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,117 +455,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB0CC04-0019-41D2-A8E4-E64228F4488E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{520C3832-2FFE-40A4-AFBB-F1E07FBA11BD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{6027465A-53BE-44A3-AA45-67C324CE02C7}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{06FC7CD9-1B52-4481-AE59-636CC4482FA4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{211F5664-F691-4EAF-9BA8-70A491BACF99}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{88EB958F-CB97-4829-BE98-60FA114BC664}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9C976D7D-0A0F-4027-B61D-54B43DB1BC91}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{7EB1004B-A23B-4556-9FC0-6DE66DFF1CC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>